--- a/excel/excel-training/Level 2/Excel Tables - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Excel Tables - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Excel Campus\Courses\Elevate\Course Files\Published\Level 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6640137-631B-49E3-AE52-B8B12CFFA74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E78D3-1FAB-C343-A943-699D4C816C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="10" r:id="rId1"/>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t>Emp ID</t>
   </si>
@@ -373,21 +395,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,14 +446,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +545,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -537,12 +577,12 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
@@ -551,27 +591,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -581,14 +615,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -598,28 +626,39 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -628,7 +667,114 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="61">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1264,44 +1410,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1560,39 +1668,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblExample" displayName="tblExample" ref="B3:D11" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblExample" displayName="tblExample" ref="B3:D11" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B3:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Emp ID" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Emp ID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblExample2" displayName="tblExample2" ref="B13:D16" totalsRowShown="0" headerRowDxfId="50" headerRowCellStyle="Normal 2">
-  <autoFilter ref="B13:D16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDD10AE1-52F4-F045-A734-FAA5F38C0204}" name="Table2" displayName="Table2" ref="B13:D16" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B13:D16" xr:uid="{FDD10AE1-52F4-F045-A734-FAA5F38C0204}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Emp ID" dataDxfId="49" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Sales" dataDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{F9554445-7D4F-6B42-9691-3B4F9C6A44E3}" name="Emp ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4BA39491-CD96-1149-96EB-1325A6885C28}" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5693674E-198B-2846-955F-5F2E1CBA52AA}" name="Sales" dataDxfId="5" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblSales6" displayName="tblSales6" ref="A3:F6" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
-  <autoFilter ref="A3:F6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7228238E-C7F3-5042-8961-68A69F2396EB}" name="tblSales" displayName="tblSales" ref="A3:F11">
+  <autoFilter ref="A3:F11" xr:uid="{7228238E-C7F3-5042-8961-68A69F2396EB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="43" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Region" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Net Price" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{DF8A745D-0927-FF4B-80E4-D3E0845D54BA}" name="Emp ID" totalsRowLabel="Total"/>
+    <tableColumn id="3" xr3:uid="{21B90A45-4D23-8A43-9491-70F7C1B264FC}" name="Region" dataDxfId="3" totalsRowDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{BBE46759-9DF7-C142-BBCF-47490476DCD8}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{5621F1A1-0F2C-9E45-AFAA-2036E7864762}" name="Retail Price"/>
+    <tableColumn id="5" xr3:uid="{3A323507-74D4-2340-9DCA-40330FF728B3}" name="Discount" totalsRowFunction="sum" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AE402622-7ECB-D040-ACDF-B56365880D02}" name="Net Price" dataDxfId="0" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblSales6" displayName="tblSales6" ref="A3:F7" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53">
+  <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="51" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Region" dataDxfId="50" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Net Price" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1600,16 +1725,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblSales5" displayName="tblSales5" ref="A3:F7" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblSales5" displayName="tblSales5" ref="A3:F7" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Region" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Net Price" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Region" dataDxfId="38" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Net Price" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Comma">
       <calculatedColumnFormula>tblSales5[[#This Row],[Retail Price]]-tblSales5[[#This Row],[Discount]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1617,57 +1742,57 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A3:E11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A3:E11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:E11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Emp ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Region" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Emp ID" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Region" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Retail Price" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Discount" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Retail Price" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Discount" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tblRegion" displayName="tblRegion" ref="A1:B9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tblRegion" displayName="tblRegion" ref="A1:B9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Employee" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Region" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Employee" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Region" dataDxfId="21" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="tblEmployee" displayName="tblEmployee" ref="A4:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="tblEmployee" displayName="tblEmployee" ref="A4:D10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A4:D10" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Emp ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Region" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Retail Price" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Emp ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Region" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Retail Price" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tblDiscount" displayName="tblDiscount" ref="A3:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tblDiscount" displayName="tblDiscount" ref="A3:E8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A3:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Emp ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Region" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Emp ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Region" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Retail Price" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Discount" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Retail Price" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Discount" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1939,127 +2064,125 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="41" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="44">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="36">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="44">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="36">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="44">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="36">
         <v>3</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="44">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="36">
         <v>4</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="36">
         <v>5</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="44">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="36">
         <v>6</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="44">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="36">
         <v>7</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="44">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="36">
         <v>8</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="44">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="36">
         <v>9</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="43"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="39" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2089,134 +2212,134 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>10004</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>250000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>10005</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>300000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
@@ -2224,12 +2347,12 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2249,745 +2372,745 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
         <v>10001</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <v>10002</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>10003</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>10004</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>250000</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <v>10005</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>300000</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
         <v>10006</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>350000</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
         <v>10007</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>400000</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
         <v>10008</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>450000</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F12" s="19"/>
-      <c r="G12" s="23" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="F12" s="16"/>
+      <c r="G12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="45">
         <v>10001</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="46">
         <v>100000</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="45">
         <v>10002</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="46">
         <v>150000</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="F15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="45">
         <v>10003</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="46">
         <v>200000</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F18" s="19"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F19" s="19"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-    </row>
-    <row r="20" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F20" s="19"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-    </row>
-    <row r="21" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F22" s="19"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-    </row>
-    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F23" s="19"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-    </row>
-    <row r="25" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-    </row>
-    <row r="27" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-    </row>
-    <row r="28" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-    </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-    </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-    </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F32" s="19"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-    </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F33" s="19"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-    </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F34" s="19"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-    </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F19" s="16"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+    </row>
+    <row r="24" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F26" s="16"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F31" s="16"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+    </row>
+    <row r="32" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F32" s="16"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+    </row>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+    </row>
+    <row r="34" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+    </row>
+    <row r="35" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F35" s="16"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3006,78 +3129,62 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="F3" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
         <v>10001</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="49">
         <v>100000</v>
@@ -3085,24 +3192,20 @@
       <c r="E4" s="49">
         <v>25000</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="F4" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
         <v>10002</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="49">
         <v>150000</v>
@@ -3110,24 +3213,20 @@
       <c r="E5" s="49">
         <v>30000</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="F5" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="48">
         <v>10003</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>5</v>
       </c>
       <c r="D6" s="49">
         <v>200000</v>
@@ -3135,24 +3234,20 @@
       <c r="E6" s="49">
         <v>35000</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="F6" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="48">
         <v>10004</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>5</v>
       </c>
       <c r="D7" s="49">
         <v>250000</v>
@@ -3160,24 +3255,20 @@
       <c r="E7" s="49">
         <v>40000</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="F7" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="48">
         <v>10005</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>10</v>
       </c>
       <c r="D8" s="49">
         <v>300000</v>
@@ -3185,24 +3276,20 @@
       <c r="E8" s="49">
         <v>45000</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="F8" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="48">
         <v>10006</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>10</v>
       </c>
       <c r="D9" s="49">
         <v>350000</v>
@@ -3210,199 +3297,75 @@
       <c r="E9" s="49">
         <v>50000</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
+      <c r="F9" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
         <v>10007</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="D10" s="41">
+        <v>400000</v>
+      </c>
+      <c r="E10" s="41">
+        <v>55000</v>
+      </c>
+      <c r="F10" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="49">
-        <v>400000</v>
-      </c>
-      <c r="E29" s="49">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
-        <v>10008</v>
-      </c>
-      <c r="B30" s="48" t="s">
+      <c r="C11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="49">
+      <c r="D11" s="41">
         <v>450000</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E11" s="41">
         <v>60000</v>
       </c>
+      <c r="F11" s="50">
+        <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{9CFCE319-B19E-4140-8DBE-BFEEF7ADA734}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3412,143 +3375,156 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>165000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="51">
+        <v>10007</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="53">
+        <v>400000</v>
+      </c>
+      <c r="E7" s="53">
+        <v>55000</v>
+      </c>
+      <c r="F7" s="54">
+        <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10001</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3557,19 +3533,19 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>100000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>25000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <f>D11-E11</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>10002</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3578,19 +3554,19 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>150000</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>30000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <f t="shared" ref="F12:F13" si="0">D12-E12</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>10003</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3599,38 +3575,57 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>200000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>35000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>165000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="27" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>10007</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9">
+        <v>400000</v>
+      </c>
+      <c r="E14" s="9">
+        <v>55000</v>
+      </c>
+      <c r="F14" s="13">
+        <f>D14-E14</f>
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="27" t="s">
+      <c r="F16" s="24">
+        <f>SUM(F11:F13)</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="13">
+        <f>SUM(tblSales6[Net Price])</f>
+        <v>705000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10007</v>
       </c>
@@ -3647,7 +3642,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3674,34 +3669,40 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="28.796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="28">
+        <f>SUM('Table Formulas vs Standard'!F11:F14)</f>
+        <v>705000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13">
+        <f>SUM(tblSales6[Net Price])</f>
+        <v>705000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3714,124 +3715,128 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>tblSales5[[#This Row],[Retail Price]]-tblSales5[[#This Row],[Discount]]</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f>tblSales5[[#This Row],[Retail Price]]-tblSales5[[#This Row],[Discount]]</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>tblSales5[[#This Row],[Retail Price]]-tblSales5[[#This Row],[Discount]]</f>
         <v>165000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <v>10007</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10">
@@ -3840,57 +3845,80 @@
       <c r="E7" s="10">
         <v>55000</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <f>tblSales5[[#This Row],[Retail Price]]-tblSales5[[#This Row],[Discount]]</f>
         <v>345000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="33" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="33" t="s">
+      <c r="F10" s="24">
+        <f>SUM(tblSales5[Net Price])</f>
+        <v>705000</v>
+      </c>
+      <c r="G10" s="50">
+        <f>SUM(tblSales5[Retail Price])</f>
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="33" t="s">
+      <c r="F11" s="24">
+        <f>SUM(tblSales5[Net Price])</f>
+        <v>705000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="33" t="s">
+      <c r="F12" s="3">
+        <f>COUNTA(tblSales5[#Data])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="33" t="s">
+      <c r="F13" s="3" t="str" cm="1">
+        <f t="array" ref="F13:K13">tblSales5[#Headers]</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <v>Name</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <v>Region</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <v>Retail Price</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <v>Discount</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <v>Net Price</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="23"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -3911,188 +3939,188 @@
       <selection activeCell="A4" sqref="A4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>10004</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>250000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>10005</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>300000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10006</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>350000</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>10007</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>400000</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>55000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10008</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>450000</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -4100,8 +4128,8 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -4125,82 +4153,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="18" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4221,110 +4249,104 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.19921875" style="3"/>
+    <col min="7" max="7" width="19.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10001</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10002</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>10003</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>200000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>10004</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>250000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10005</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>10006</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>350000</v>
       </c>
     </row>
